--- a/src/main/java/com/magento/qa/testdata/NewAccount.xlsx
+++ b/src/main/java/com/magento/qa/testdata/NewAccount.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F59AF12-C47E-4EC3-B3DF-47C66E0D1764}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5914DAC4-DE56-4128-8BE8-A7D060099DF1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>FirstName</t>
   </si>
@@ -47,6 +47,30 @@
   </si>
   <si>
     <t>pass@123</t>
+  </si>
+  <si>
+    <t>Anamika</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>aba@gm.com</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>sssss</t>
+  </si>
+  <si>
+    <t>fffff</t>
+  </si>
+  <si>
+    <t>abc@123</t>
+  </si>
+  <si>
+    <t>Already Use</t>
   </si>
 </sst>
 </file>
@@ -375,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,9 +410,10 @@
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,8 +429,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -417,12 +445,52 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{32A5113C-EA46-4209-BAD9-1BAF286C1BE3}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{FFF4B2FA-10C5-43C4-95C5-C73C365C1379}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{93031365-96A4-4DE3-A3E4-530CA13AAB35}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{DC0B79A4-8D80-42A6-8D7C-654FED0E97BC}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{22429C8A-1CC7-4598-9245-7E6A5A31D877}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
